--- a/data/trans_dic/P18_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,53; 34,62</t>
+          <t>20,93; 40,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 21,36</t>
+          <t>6,99; 34,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,93</t>
+          <t>6,27; 15,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,11</t>
+          <t>7,93; 19,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,26; 37,29</t>
+          <t>4,89; 14,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,97</t>
+          <t>23,37; 35,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,77</t>
+          <t>6,37; 14,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 23,15</t>
+          <t>14,77; 25,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 33,98</t>
+          <t>15,32; 27,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,17</t>
+          <t>12,83; 25,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 17,37</t>
+          <t>24,02; 35,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 18,48</t>
+          <t>8,2; 20,67</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 19,37</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 21,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 18,16</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 30,99</t>
+          <t>16,16; 30,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,7</t>
+          <t>2,71; 11,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,21</t>
+          <t>4,02; 13,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,98</t>
+          <t>4,14; 13,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 40,52</t>
+          <t>6,5; 18,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 18,38</t>
+          <t>27,06; 42,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 22,66</t>
+          <t>5,87; 15,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 23,78</t>
+          <t>10,6; 21,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 34,11</t>
+          <t>8,89; 20,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,34</t>
+          <t>13,48; 35,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 18,01</t>
+          <t>23,8; 34,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,1</t>
+          <t>5,56; 12,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 16,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 15,07</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 25,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 25,01</t>
+          <t>3,22; 32,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,89</t>
+          <t>0,0; 33,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 24,76</t>
+          <t>5,8; 41,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 42,79</t>
+          <t>3,36; 69,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 38,38</t>
+          <t>0,0; 32,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 15,1</t>
+          <t>16,53; 47,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 19,81</t>
+          <t>2,31; 23,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 21,03</t>
+          <t>2,69; 24,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 28,1</t>
+          <t>9,9; 35,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,66</t>
+          <t>1,99; 18,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 18,39</t>
+          <t>10,57; 32,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 30,92</t>
+          <t>4,91; 22,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 25,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 49,28</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 17,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 29,14</t>
+          <t>18,9; 31,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,19</t>
+          <t>6,74; 21,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,49</t>
+          <t>7,07; 13,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,94</t>
+          <t>8,67; 21,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 35,52</t>
+          <t>7,08; 14,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,62</t>
+          <t>26,86; 36,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,06</t>
+          <t>7,56; 13,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,88</t>
+          <t>14,27; 21,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,82</t>
+          <t>14,24; 22,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,0</t>
+          <t>14,08; 24,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,26</t>
+          <t>24,77; 31,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,71</t>
+          <t>7,98; 15,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 16,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 19,72</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 18,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103875</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60403</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50118</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48572</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>126092</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52174</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84217</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85308</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101086</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>229968</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>112578</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>149658</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76555; 148742</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29845; 146463</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22949; 58549</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30211; 74159</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25099; 73679</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100266; 154349</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32108; 74155</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62186; 108508</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61780; 111999</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71985; 141702</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>190879; 278314</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>76403; 192560</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>93393; 152478</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>106921; 169068</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>112252; 195094</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68648</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21547</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26054</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47256</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118436</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42451</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54516</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46949</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>92832</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>187084</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63998</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>80570</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>71752</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>140088</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49228; 93441</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9749; 39705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12796; 42935</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13358; 42275</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26803; 77416</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>94208; 146463</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24796; 63898</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35888; 74054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29646; 69934</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57684; 151972</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>155356; 228237</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43469; 94499</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>60377; 109372</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>51026; 98865</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>101710; 215314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10732</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12931</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14269</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25305</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9732</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23757</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10167</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8587</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16115</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34490</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23098</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>22856</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>41420</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17283</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2621; 26152</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 34048</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4614; 32728</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2876; 59155</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 37931</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13653; 39103</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2336; 23979</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2144; 19440</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8174; 29671</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2216; 20179</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17333; 53464</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9972; 45697</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10242; 41031</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18024; 82863</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5489; 40104</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>183256</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94882</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76535</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>100226</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>105560</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>268285</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>104793</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>147320</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>148372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>201469</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>451541</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>199675</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>223855</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>248598</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>307029</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>142102; 235021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59848; 187965</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54003; 104261</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>68433; 168403</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>73719; 148790</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>230942; 310550</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77693; 137695</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>119723; 181054</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>116670; 181332</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>154870; 269692</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>399120; 511199</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>152945; 287749</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>184386; 267669</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>207353; 317241</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>246061; 397175</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
